--- a/epigraphhub/data/brasil/sinan/metadata/CHIK.xlsx
+++ b/epigraphhub/data/brasil/sinan/metadata/CHIK.xlsx
@@ -87,8 +87,7 @@
     <t xml:space="preserve">ID_AGRAVO</t>
   </si>
   <si>
-    <t xml:space="preserve">31-Data da
-Investigação</t>
+    <t xml:space="preserve">31-Data da Investigação</t>
   </si>
   <si>
     <t xml:space="preserve">dt_investigacao</t>
@@ -129,8 +128,7 @@
     <t xml:space="preserve">DT_INVEST</t>
   </si>
   <si>
-    <t xml:space="preserve">32- Ocupação/ramo de
-atividade econômica</t>
+    <t xml:space="preserve">32- Ocupação/ramo de atividade econômica</t>
   </si>
   <si>
     <t xml:space="preserve">co_cbo_ocupacao</t>
@@ -153,8 +151,7 @@
     <t xml:space="preserve">ID_OCUPA_N</t>
   </si>
   <si>
-    <t xml:space="preserve">33- Sinais clínicos
-(Febre)</t>
+    <t xml:space="preserve">33- Sinais clínicos (Febre)</t>
   </si>
   <si>
     <t xml:space="preserve">1 – Sim
@@ -171,156 +168,127 @@
     <t xml:space="preserve">FEBRE</t>
   </si>
   <si>
-    <t xml:space="preserve">33- Sinais clínicos
-(Mialgia)</t>
+    <t xml:space="preserve">33- Sinais clínicos (Mialgia)</t>
   </si>
   <si>
     <t xml:space="preserve">MIALGIA</t>
   </si>
   <si>
-    <t xml:space="preserve">33- Sinais clínicos
-(Cefaleia)</t>
+    <t xml:space="preserve">33- Sinais clínicos (Cefaleia)</t>
   </si>
   <si>
     <t xml:space="preserve">CEFALEIA</t>
   </si>
   <si>
-    <t xml:space="preserve">33- Sinais clínicos
-(Exantema)</t>
+    <t xml:space="preserve">33- Sinais clínicos (Exantema)</t>
   </si>
   <si>
     <t xml:space="preserve">EXANTEMA</t>
   </si>
   <si>
-    <t xml:space="preserve">33- Sinais clínicos
-(Vômito)</t>
+    <t xml:space="preserve">33- Sinais clínicos (Vômito)</t>
   </si>
   <si>
     <t xml:space="preserve">VOMITO</t>
   </si>
   <si>
-    <t xml:space="preserve">33- Sinais clínicos
-(Náusea)</t>
+    <t xml:space="preserve">33- Sinais clínicos (Náusea)</t>
   </si>
   <si>
     <t xml:space="preserve">NAUSEA</t>
   </si>
   <si>
-    <t xml:space="preserve">33- Sinais clínicos (Dor
-nas costas)</t>
+    <t xml:space="preserve">33- Sinais clínicos (Dor nas costas)</t>
   </si>
   <si>
     <t xml:space="preserve">DOR_COSTAS</t>
   </si>
   <si>
-    <t xml:space="preserve">33- Sinais clínicos
-(Conjuntivite)</t>
+    <t xml:space="preserve">33- Sinais clínicos (Conjuntivite)</t>
   </si>
   <si>
     <t xml:space="preserve">CONJUNTVIT</t>
   </si>
   <si>
-    <t xml:space="preserve">33- Sinais clínicos
-(Artrite)</t>
+    <t xml:space="preserve">33- Sinais clínicos (Artrite)</t>
   </si>
   <si>
     <t xml:space="preserve">ARTRITE</t>
   </si>
   <si>
-    <t xml:space="preserve">33- Sinais clínicos
-(Artralgia intensa)</t>
+    <t xml:space="preserve">33- Sinais clínicos (Artralgia intensa)</t>
   </si>
   <si>
     <t xml:space="preserve">ARTRALGIA</t>
   </si>
   <si>
-    <t xml:space="preserve">33- Sinais clínicos
-(Petéquias)</t>
+    <t xml:space="preserve">33- Sinais clínicos (Petéquias)</t>
   </si>
   <si>
     <t xml:space="preserve">PETÉQUIA_N</t>
   </si>
   <si>
-    <t xml:space="preserve">33- Sinais clínicos
-(Leucopenia)</t>
+    <t xml:space="preserve">33- Sinais clínicos (Leucopenia)</t>
   </si>
   <si>
     <t xml:space="preserve">LEUCOPENIA</t>
   </si>
   <si>
-    <t xml:space="preserve">33- Sinais clínicos
-(Prova do laço)</t>
+    <t xml:space="preserve">33- Sinais clínicos (Prova do laço)</t>
   </si>
   <si>
     <t xml:space="preserve">LACO</t>
   </si>
   <si>
-    <t xml:space="preserve">33- Sinais clínicos (Dor
-retroorbital)</t>
+    <t xml:space="preserve">33- Sinais clínicos (Dor retroorbital)</t>
   </si>
   <si>
     <t xml:space="preserve">DOR_RETRO</t>
   </si>
   <si>
-    <t xml:space="preserve">34- Doenças pré-
-existentes (Diabetes)</t>
+    <t xml:space="preserve">34- Doenças pré- existentes (Diabetes)</t>
   </si>
   <si>
     <t xml:space="preserve">DIABETES</t>
   </si>
   <si>
-    <t xml:space="preserve">34- Doenças pré-
-existentes (Doenças
-hematológicas)</t>
+    <t xml:space="preserve">34- Doenças pré- existentes (Doenças hematológicas)</t>
   </si>
   <si>
     <t xml:space="preserve">HEMATOLOG</t>
   </si>
   <si>
-    <t xml:space="preserve">34- Doenças pré-
-existentes
-(Hepatopatias)</t>
+    <t xml:space="preserve">34- Doenças pré- existentes (Hepatopatias)</t>
   </si>
   <si>
     <t xml:space="preserve">HEPATOPAT</t>
   </si>
   <si>
-    <t xml:space="preserve">34- Doenças pré-
-existentes (Doença
-renal crônica)</t>
+    <t xml:space="preserve">34- Doenças pré- existentes (Doença renal crônica)</t>
   </si>
   <si>
     <t xml:space="preserve">RENAL</t>
   </si>
   <si>
-    <t xml:space="preserve">34- Doenças pré-
-existentes
-(Hipertensão arterial)</t>
+    <t xml:space="preserve">34- Doenças pré- existentes (Hipertensão arterial)</t>
   </si>
   <si>
     <t xml:space="preserve">HIPERTENSA</t>
   </si>
   <si>
-    <t xml:space="preserve">34- Doenças pré-
-existentes (Doença
-ácido-péptica)</t>
+    <t xml:space="preserve">34- Doenças pré- existentes (Doença ácido-péptica)</t>
   </si>
   <si>
     <t xml:space="preserve">ÁCIDO_PEPT</t>
   </si>
   <si>
-    <t xml:space="preserve">34- Doenças pré-
-existentes (Doenças
-auto-imunes)</t>
+    <t xml:space="preserve">34- Doenças pré- existentes (Doenças auto-imunes)</t>
   </si>
   <si>
     <t xml:space="preserve">AUTO_IMUNE</t>
   </si>
   <si>
-    <t xml:space="preserve">35-Exame sorológico
-(IgM) Chikungunya
-Soro 1
-Data da Coleta</t>
+    <t xml:space="preserve">35-Exame sorológico (IgM) Chikungunya Soro 1 Data da Coleta</t>
   </si>
   <si>
     <t xml:space="preserve">dt_coleta_exame</t>
@@ -362,10 +330,7 @@
     <t xml:space="preserve">DT_CHIK_S1</t>
   </si>
   <si>
-    <t xml:space="preserve">36-Exame sorológico
-(IgM) Chikungunya
-Soro 2
-Data da Coleta</t>
+    <t xml:space="preserve">36-Exame sorológico (IgM) Chikungunya Soro 2 Data da Coleta</t>
   </si>
   <si>
     <t xml:space="preserve">Data da Coleta Exame Sorológico (IgM)
@@ -406,8 +371,7 @@
     <t xml:space="preserve">DT_CHIK_S2</t>
   </si>
   <si>
-    <t xml:space="preserve">37-Exame PRNT
-Data da Coleta</t>
+    <t xml:space="preserve">37-Exame PRNT Data da Coleta</t>
   </si>
   <si>
     <t xml:space="preserve">Data da Coleta Exame PRNT</t>
@@ -442,10 +406,7 @@
     <t xml:space="preserve">DT_PRNT</t>
   </si>
   <si>
-    <t xml:space="preserve">38-Exame sorológico
-(IgM) Chikungunya
-Soro 1
-Resultado</t>
+    <t xml:space="preserve">38-Exame sorológico (IgM) Chikungunya Soro 1 Resultado</t>
   </si>
   <si>
     <t xml:space="preserve">tp_result_exame</t>
@@ -464,10 +425,7 @@
     <t xml:space="preserve">RES_CHIKS1</t>
   </si>
   <si>
-    <t xml:space="preserve">38-Exame sorológico
-(IgM) Chikungunya
-Soro 2
-Resultado</t>
+    <t xml:space="preserve">38-Exame sorológico (IgM) Chikungunya Soro 2 Resultado</t>
   </si>
   <si>
     <t xml:space="preserve">Resultado do Exame Sorológico (IgM) soro 2
@@ -477,8 +435,7 @@
     <t xml:space="preserve">RES_CHIKS2</t>
   </si>
   <si>
-    <t xml:space="preserve">38-Exame PRNT
-Resultado</t>
+    <t xml:space="preserve">38-Exame PRNT Resultado</t>
   </si>
   <si>
     <t xml:space="preserve">Resultado do Exame Sorológico (IgM) PRNT</t>
@@ -487,9 +444,7 @@
     <t xml:space="preserve">RESUL_PRNT</t>
   </si>
   <si>
-    <t xml:space="preserve">39-Exame sorológico
-(IgM) Dengue
-Data da Coleta</t>
+    <t xml:space="preserve">39-Exame sorológico (IgM) Dengue Data da Coleta</t>
   </si>
   <si>
     <t xml:space="preserve">Data da Coleta Exame Sorológico (IgM)
@@ -528,9 +483,7 @@
     <t xml:space="preserve">DT_SORO</t>
   </si>
   <si>
-    <t xml:space="preserve">40-Exame sorológico
-(IgM) Dengue
-Resultado</t>
+    <t xml:space="preserve">40-Exame sorológico (IgM) Dengue Resultado</t>
   </si>
   <si>
     <t xml:space="preserve">Resultado do Exame Sorológico (IgM) Dengue</t>
@@ -565,8 +518,7 @@
     <t xml:space="preserve">RESUL_SORO</t>
   </si>
   <si>
-    <t xml:space="preserve">41- Exame NS1
-Data da Coleta</t>
+    <t xml:space="preserve">41- Exame NS1 Data da Coleta</t>
   </si>
   <si>
     <t xml:space="preserve">dt_coleta_NS1</t>
@@ -607,8 +559,7 @@
     <t xml:space="preserve">DT_NS1</t>
   </si>
   <si>
-    <t xml:space="preserve">42- Exame NS1
-Resultado</t>
+    <t xml:space="preserve">42- Exame NS1 Resultado</t>
   </si>
   <si>
     <t xml:space="preserve">Tp_result_NS1</t>
@@ -626,8 +577,7 @@
     <t xml:space="preserve">RESUL_NS1</t>
   </si>
   <si>
-    <t xml:space="preserve">43-Isolamento Viral
-Data da Coleta</t>
+    <t xml:space="preserve">43-Isolamento Viral Data da Coleta</t>
   </si>
   <si>
     <t xml:space="preserve">dt_coleta_isolamento</t>
@@ -668,8 +618,7 @@
     <t xml:space="preserve">DT_VIRAL</t>
   </si>
   <si>
-    <t xml:space="preserve">43-Isolamento Viral
-Resultado</t>
+    <t xml:space="preserve">43-Isolamento Viral Resultado</t>
   </si>
   <si>
     <t xml:space="preserve">tp_result_isolamento</t>
@@ -707,8 +656,7 @@
     <t xml:space="preserve">RESUL_VI_N</t>
   </si>
   <si>
-    <t xml:space="preserve">45-RT-PCR
-Data da Coleta</t>
+    <t xml:space="preserve">45-RT-PCR Data da Coleta</t>
   </si>
   <si>
     <t xml:space="preserve">dt_coleta_rtpcr</t>
@@ -749,8 +697,7 @@
     <t xml:space="preserve">DT_PCR</t>
   </si>
   <si>
-    <t xml:space="preserve">46-RT-PCR
-Resultado</t>
+    <t xml:space="preserve">46-RT-PCR Resultado</t>
   </si>
   <si>
     <t xml:space="preserve">tp_result_rtpcr</t>
@@ -841,8 +788,7 @@
     <t xml:space="preserve">SOROTIPO</t>
   </si>
   <si>
-    <t xml:space="preserve">48-Histopatologia
-Resultado</t>
+    <t xml:space="preserve">48-Histopatologia Resultado</t>
   </si>
   <si>
     <t xml:space="preserve">tp_result_histopatologia</t>
@@ -880,8 +826,7 @@
     <t xml:space="preserve">HISTOPA_N</t>
   </si>
   <si>
-    <t xml:space="preserve">49-Imunohistoquímica
-Resultado</t>
+    <t xml:space="preserve">49-Imunohistoquímica Resultado</t>
   </si>
   <si>
     <t xml:space="preserve">tp_result_imunohistoquimica</t>
@@ -893,8 +838,7 @@
     <t xml:space="preserve">IMUNOH_N</t>
   </si>
   <si>
-    <t xml:space="preserve">50-Ocorreu
-Hospitalização?</t>
+    <t xml:space="preserve">50-Ocorreu Hospitalização?</t>
   </si>
   <si>
     <t xml:space="preserve">st_ocorreu_hospitalizacao</t>
@@ -934,8 +878,7 @@
     <t xml:space="preserve">DT_INTERNA</t>
   </si>
   <si>
-    <t xml:space="preserve">52-UF De
-Hospitalização</t>
+    <t xml:space="preserve">52-UF De Hospitalização</t>
   </si>
   <si>
     <t xml:space="preserve">co_uf_hospital</t>
@@ -950,8 +893,7 @@
     <t xml:space="preserve">UF</t>
   </si>
   <si>
-    <t xml:space="preserve">53-Municipio Do
-Hospital</t>
+    <t xml:space="preserve">53-Municipio Do Hospital</t>
   </si>
   <si>
     <t xml:space="preserve">co_municipio_hospital</t>
@@ -1013,8 +955,7 @@
     <t xml:space="preserve">TEL_HOSP</t>
   </si>
   <si>
-    <t xml:space="preserve">56-O caso é Autóctone
-de residência?</t>
+    <t xml:space="preserve">56-O caso é Autóctone de residência?</t>
   </si>
   <si>
     <t xml:space="preserve">tp_autoctone_residencia</t>
@@ -1155,8 +1096,7 @@
     <t xml:space="preserve">TPAUTOCTO</t>
   </si>
   <si>
-    <t xml:space="preserve">57-UF (provável da
-fonte de infecção)</t>
+    <t xml:space="preserve">57-UF (provável da fonte de infecção)</t>
   </si>
   <si>
     <t xml:space="preserve">co_uf_infeccao</t>
@@ -1241,8 +1181,7 @@
     <t xml:space="preserve">COUFINF</t>
   </si>
   <si>
-    <t xml:space="preserve">58-País (provável da
-fonte de infecção)</t>
+    <t xml:space="preserve">58-País (provável da fonte de infecção)</t>
   </si>
   <si>
     <t xml:space="preserve">co_pais_infeccao</t>
@@ -1349,8 +1288,7 @@
     <t xml:space="preserve">COPAISINF</t>
   </si>
   <si>
-    <t xml:space="preserve">59-Município (provável
-da fonte de infecção)</t>
+    <t xml:space="preserve">59-Município (provável da fonte de infecção)</t>
   </si>
   <si>
     <t xml:space="preserve">co_municipio_infeccao</t>
@@ -1415,28 +1353,7 @@
     <t xml:space="preserve">COMUNINF</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">60-Distrito
-(provável de infecção</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
+    <t xml:space="preserve">60-Distrito (provável de infecção)</t>
   </si>
   <si>
     <t xml:space="preserve">co_distrito_infeccão</t>
@@ -1504,8 +1421,7 @@
     <t xml:space="preserve">CODISINF</t>
   </si>
   <si>
-    <t xml:space="preserve">61-Bairro (provável de
-infecção)</t>
+    <t xml:space="preserve">61-Bairro (provável de infecção)</t>
   </si>
   <si>
     <t xml:space="preserve">co_bairro_infeccao,
@@ -1640,8 +1556,7 @@
     <t xml:space="preserve">CLASSI_FIN</t>
   </si>
   <si>
-    <t xml:space="preserve">63-Critério De
-Confirmação/Descarte</t>
+    <t xml:space="preserve">63-Critério De Confirmação/Descarte</t>
   </si>
   <si>
     <t xml:space="preserve">tp_criterio_confirmacao</t>
@@ -1690,8 +1605,7 @@
     <t xml:space="preserve">CRITERIO</t>
   </si>
   <si>
-    <t xml:space="preserve">64- Apresentação
-clínica Chikungunya</t>
+    <t xml:space="preserve">64- Apresentação clínica Chikungunya</t>
   </si>
   <si>
     <t xml:space="preserve">1- Aguda
@@ -1849,8 +1763,7 @@
     <t xml:space="preserve">DT_OBITO</t>
   </si>
   <si>
-    <t xml:space="preserve">67-Data Do
-Encerramento</t>
+    <t xml:space="preserve">67-Data Do Encerramento</t>
   </si>
   <si>
     <t xml:space="preserve">dt_encerramento</t>
@@ -1918,9 +1831,7 @@
     <t xml:space="preserve">DT_ENCERRA</t>
   </si>
   <si>
-    <t xml:space="preserve">68- Dengue com sinais
-de alarme
-(Hipotensão)</t>
+    <t xml:space="preserve">68- Dengue com sinais de alarme (Hipotensão)</t>
   </si>
   <si>
     <t xml:space="preserve">Informar qual sinal de alarme foi encontrado</t>
@@ -1973,10 +1884,7 @@
     <t xml:space="preserve">ALRM_HIPOT</t>
   </si>
   <si>
-    <t xml:space="preserve">68- Dengue com sinais
-de alarme
-(Queda abrupta de
-plaquetas)</t>
+    <t xml:space="preserve">68- Dengue com sinais de alarme (Queda abrupta de plaquetas)</t>
   </si>
   <si>
     <r>
@@ -2026,9 +1934,7 @@
     <t xml:space="preserve">ALRM_PLAQ</t>
   </si>
   <si>
-    <t xml:space="preserve">68- Dengue com sinais
-de alarme
-(Vômitos persistentes)</t>
+    <t xml:space="preserve">68- Dengue com sinais de alarme (Vômitos persistentes)</t>
   </si>
   <si>
     <r>
@@ -2078,8 +1984,7 @@
     <t xml:space="preserve">ALRM_VOM</t>
   </si>
   <si>
-    <t xml:space="preserve">68- Dengue com sinais
-de alarme (Dor abdominal)</t>
+    <t xml:space="preserve">68- Dengue com sinais de alarme (Dor abdominal)</t>
   </si>
   <si>
     <r>
@@ -2128,20 +2033,13 @@
     <t xml:space="preserve">ALRM_ABDOM</t>
   </si>
   <si>
-    <t xml:space="preserve">68- Dengue com sinais
-de alarme
-(Letargia ou
-irritabilidade)</t>
+    <t xml:space="preserve">68- Dengue com sinais de alarme (Letargia ou irritabilidade)</t>
   </si>
   <si>
     <t xml:space="preserve">ALRM_LETAR</t>
   </si>
   <si>
-    <t xml:space="preserve">68- Dengue com sinais
-de alarme
-(Sangramento de
-mucosa/outras
-hemorragias)</t>
+    <t xml:space="preserve">68- Dengue com sinais de alarme (Sangramento de mucosa/outras hemorragias)</t>
   </si>
   <si>
     <r>
@@ -2191,9 +2089,7 @@
     <t xml:space="preserve">ALRM_SANG</t>
   </si>
   <si>
-    <t xml:space="preserve">68- Dengue com sinais
-de alarme
-(Aumento hematócrito)</t>
+    <t xml:space="preserve">68- Dengue com sinais de alarme (Aumento hematócrito)</t>
   </si>
   <si>
     <r>
@@ -2242,9 +2138,7 @@
     <t xml:space="preserve">ALRM_HEMAT</t>
   </si>
   <si>
-    <t xml:space="preserve">68- Dengue com sinais
-de alarme
-(Hepatomegalia)</t>
+    <t xml:space="preserve">68- Dengue com sinais de alarme (Hepatomegalia)</t>
   </si>
   <si>
     <r>
@@ -2293,9 +2187,7 @@
     <t xml:space="preserve">ALRM_HEPAT</t>
   </si>
   <si>
-    <t xml:space="preserve">68- Dengue com sinais
-de alarme
-(Acúmulo de líquidos)</t>
+    <t xml:space="preserve">68- Dengue com sinais de alarme (Acúmulo de líquidos)</t>
   </si>
   <si>
     <r>
@@ -2345,10 +2237,7 @@
     <t xml:space="preserve">ALRM_LIQ</t>
   </si>
   <si>
-    <t xml:space="preserve">69- Dengue com sinais
-de alarme
-Data de início dos
-sintomas</t>
+    <t xml:space="preserve">69- Dengue com sinais de alarme Data de início dos sintomas</t>
   </si>
   <si>
     <t xml:space="preserve">Informar data de início dos sinais de alarme.
@@ -2424,9 +2313,7 @@
     <t xml:space="preserve">DT_ALRM</t>
   </si>
   <si>
-    <t xml:space="preserve">70- Dengue grave
-(Pulso débil ou
-indectável)</t>
+    <t xml:space="preserve">70- Dengue grave (Pulso débil ou indectável)</t>
   </si>
   <si>
     <t xml:space="preserve">Informar qual sinal de gravidade foi
@@ -2469,8 +2356,7 @@
     <t xml:space="preserve">GRAV_PULSO</t>
   </si>
   <si>
-    <t xml:space="preserve">70- Dengue grave
-(PA convergente)</t>
+    <t xml:space="preserve">70- Dengue grave (PA convergente)</t>
   </si>
   <si>
     <r>
@@ -2509,9 +2395,7 @@
     <t xml:space="preserve">GRAV_CONV</t>
   </si>
   <si>
-    <t xml:space="preserve">70- Dengue grave
-(Tempo de enchimento
-capilar)</t>
+    <t xml:space="preserve">70- Dengue grave (Tempo de enchimento capilar)</t>
   </si>
   <si>
     <r>
@@ -2550,24 +2434,19 @@
     <t xml:space="preserve">GRAV_ENCH</t>
   </si>
   <si>
-    <t xml:space="preserve">70- Dengue grave
-(Acúmulo de líquidos
-com insuficiência
-respiratória)</t>
+    <t xml:space="preserve">70- Dengue grave (Acúmulo de líquidos com insuficiência respiratória)</t>
   </si>
   <si>
     <t xml:space="preserve">GRAV_INSUF</t>
   </si>
   <si>
-    <t xml:space="preserve">70- Dengue grave
-(Taquicardia)</t>
+    <t xml:space="preserve">70- Dengue grave (Taquicardia)</t>
   </si>
   <si>
     <t xml:space="preserve">GRAV_TAQUI</t>
   </si>
   <si>
-    <t xml:space="preserve">70- Dengue grave
-(Extremidade frias)</t>
+    <t xml:space="preserve">70- Dengue grave (Extremidade frias)</t>
   </si>
   <si>
     <r>
@@ -2605,23 +2484,19 @@
     <t xml:space="preserve">GRAV_EXTRE</t>
   </si>
   <si>
-    <t xml:space="preserve">70- Dengue grave
-(Hipotensão arterial em
-fase tardia)</t>
+    <t xml:space="preserve">70- Dengue grave (Hipotensão arterial em fase tardia)</t>
   </si>
   <si>
     <t xml:space="preserve">GRAV_HIPOT</t>
   </si>
   <si>
-    <t xml:space="preserve">70- Dengue grave
-(Hematêmese)</t>
+    <t xml:space="preserve">70- Dengue grave (Hematêmese)</t>
   </si>
   <si>
     <t xml:space="preserve">GRAV_HEMAT</t>
   </si>
   <si>
-    <t xml:space="preserve">70- Dengue grave
-(Melena)</t>
+    <t xml:space="preserve">70- Dengue grave (Melena)</t>
   </si>
   <si>
     <r>
@@ -2659,22 +2534,19 @@
     <t xml:space="preserve">GRAV_MELEN</t>
   </si>
   <si>
-    <t xml:space="preserve">70- Dengue grave
-(Metrorragia volumosa)</t>
+    <t xml:space="preserve">70- Dengue grave (Metrorragia volumosa)</t>
   </si>
   <si>
     <t xml:space="preserve">GRAV_METRO</t>
   </si>
   <si>
-    <t xml:space="preserve">70- Dengue grave
-(Sangramento do SNC)</t>
+    <t xml:space="preserve">70- Dengue grave (Sangramento do SNC)</t>
   </si>
   <si>
     <t xml:space="preserve">GRAV_SANG</t>
   </si>
   <si>
-    <t xml:space="preserve">70- Dengue grave
-(AST/ALT &gt;1 .000)</t>
+    <t xml:space="preserve">70- Dengue grave (AST/ALT &gt;1 .000)</t>
   </si>
   <si>
     <r>
@@ -2712,23 +2584,19 @@
     <t xml:space="preserve">GRAV_AST</t>
   </si>
   <si>
-    <t xml:space="preserve">70- Dengue grave
-(Miocardite)</t>
+    <t xml:space="preserve">70- Dengue grave (Miocardite)</t>
   </si>
   <si>
     <t xml:space="preserve">GRAV_MIOC</t>
   </si>
   <si>
-    <t xml:space="preserve">70- Dengue grave
-(Alteração da
-consciência)</t>
+    <t xml:space="preserve">70- Dengue grave (Alteração da consciência)</t>
   </si>
   <si>
     <t xml:space="preserve">GRAV_CONSC</t>
   </si>
   <si>
-    <t xml:space="preserve">70- Dengue grave
-(Outros órgãos)</t>
+    <t xml:space="preserve">70- Dengue grave (Outros órgãos)</t>
   </si>
   <si>
     <r>
@@ -2767,18 +2635,13 @@
     <t xml:space="preserve">GRAV_ORGAO</t>
   </si>
   <si>
-    <t xml:space="preserve">71- Dengue grave
-Data de início dos
-sintomas</t>
+    <t xml:space="preserve">71- Dengue grave Data de início dos sintomas</t>
   </si>
   <si>
     <t xml:space="preserve">DT_GRAV</t>
   </si>
   <si>
-    <t xml:space="preserve">Informações
-complementares e
-observações
-adicionais</t>
+    <t xml:space="preserve">Informações complementares e observações adicionais</t>
   </si>
   <si>
     <t xml:space="preserve">ds_observacao</t>
@@ -3016,8 +2879,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A81" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B88" activeCellId="0" sqref="B88"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="6" sqref="A3:A39 A41:A43 A45:A46 A50:A55 A57:A58 A61:A88 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
